--- a/man/completed sheets/2016-01-25/Joshua Doyle.xlsx
+++ b/man/completed sheets/2016-01-25/Joshua Doyle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="24920" windowHeight="12090"/>
+    <workbookView xWindow="120" yWindow="144" windowWidth="24924" windowHeight="12096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,8 +101,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -155,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -182,6 +183,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -495,22 +500,22 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" customWidth="1"/>
-    <col min="8" max="8" width="68.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="68.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -531,11 +536,11 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>"Total hours accounted this week: " &amp;TEXT(I1, "hh:mm")</f>
-        <v>Total hours accounted this week: 16:00</v>
+        <v>Total hours accounted this week: 21:00</v>
       </c>
       <c r="I1" s="6">
         <f>SUM(F3:F100)</f>
-        <v>1.6666666666666667</v>
+        <v>1.875</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -548,7 +553,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -574,7 +579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -590,7 +595,7 @@
       <c r="E3" s="10">
         <v>42396</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>0.20833333333333334</v>
       </c>
       <c r="G3" s="11">
@@ -600,7 +605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -616,8 +621,8 @@
       <c r="E4" s="10">
         <v>42398</v>
       </c>
-      <c r="F4" s="11">
-        <v>0.83333333333333337</v>
+      <c r="F4" s="12">
+        <v>1.0416666666666667</v>
       </c>
       <c r="G4" s="11">
         <v>0.41666666666666669</v>
@@ -626,7 +631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
@@ -642,7 +647,7 @@
       <c r="E5" s="10">
         <v>42397</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>0.625</v>
       </c>
       <c r="G5" s="11">
@@ -652,7 +657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -662,7 +667,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -672,7 +677,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -682,7 +687,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -692,7 +697,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -702,7 +707,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -712,7 +717,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -722,7 +727,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -732,7 +737,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -742,7 +747,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -752,7 +757,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -762,7 +767,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -772,7 +777,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -782,7 +787,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -792,7 +797,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -802,7 +807,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -812,7 +817,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -822,7 +827,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -832,7 +837,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -842,7 +847,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -852,7 +857,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -862,7 +867,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -872,7 +877,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -882,7 +887,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -892,7 +897,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -902,7 +907,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -912,7 +917,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -922,7 +927,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -932,7 +937,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -942,7 +947,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -952,7 +957,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -962,7 +967,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -972,7 +977,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -982,7 +987,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -992,7 +997,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1002,7 +1007,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1012,7 +1017,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1022,7 +1027,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1032,7 +1037,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1042,7 +1047,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1052,7 +1057,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1062,7 +1067,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1072,7 +1077,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1082,7 +1087,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1092,7 +1097,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1102,7 +1107,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1112,7 +1117,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1122,7 +1127,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1132,7 +1137,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -1142,7 +1147,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -1152,7 +1157,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1162,7 +1167,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -1172,7 +1177,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1182,7 +1187,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -1192,7 +1197,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1202,7 +1207,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -1212,7 +1217,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -1222,7 +1227,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -1232,7 +1237,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -1242,7 +1247,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -1252,7 +1257,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -1262,7 +1267,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -1272,7 +1277,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -1282,7 +1287,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -1292,7 +1297,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -1302,7 +1307,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -1312,7 +1317,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -1322,7 +1327,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -1332,7 +1337,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -1342,7 +1347,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -1352,7 +1357,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -1362,7 +1367,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -1372,7 +1377,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -1382,7 +1387,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -1392,7 +1397,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -1402,7 +1407,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -1412,7 +1417,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -1422,7 +1427,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -1432,7 +1437,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -1442,7 +1447,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -1452,7 +1457,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -1462,7 +1467,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -1472,7 +1477,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -1482,7 +1487,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -1492,7 +1497,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -1502,7 +1507,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -1512,7 +1517,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -1522,7 +1527,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -1532,7 +1537,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -1542,7 +1547,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -1552,7 +1557,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -1562,7 +1567,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -1572,7 +1577,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -1582,7 +1587,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -1592,7 +1597,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -1603,7 +1608,7 @@
       <c r="H100" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection sort="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1615,7 +1620,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1628,7 +1633,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
